--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1778364-B47C-4F7E-807B-1A365A073339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5EF5A8-5F4D-4FDC-814D-4080385FA729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2339E90-BA8F-4490-907D-65F07CC10914}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{374E8483-5ADE-4F96-8A63-3CF9B6B00F4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78605BE0-1A15-4492-96A0-BEAEB1B7336F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93390F0D-A7D0-4D4B-ACFF-0BB5B8D737D9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f20_18RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5EF5A8-5F4D-4FDC-814D-4080385FA729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB7A619-0222-4601-B11B-9B8B5CB0FE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{374E8483-5ADE-4F96-8A63-3CF9B6B00F4A}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{A9120090-5334-4ED8-8E1A-02EDC233CEBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93390F0D-A7D0-4D4B-ACFF-0BB5B8D737D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19F2C33-BB77-484F-A474-0BB38ABD9AD9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f20_18RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f20_18RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\f20_18RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB7A619-0222-4601-B11B-9B8B5CB0FE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E5DDE8-7477-414F-A541-CCD87EEE489A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{A9120090-5334-4ED8-8E1A-02EDC233CEBA}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{523402FF-9C2D-4F5F-8A03-4E412DD85C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19F2C33-BB77-484F-A474-0BB38ABD9AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37702704-5220-4C15-A10E-993B7B36638C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
